--- a/data/fixtures.xlsx
+++ b/data/fixtures.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
     </row>
     <row r="3">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
     </row>
     <row r="5">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
     </row>
     <row r="6">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
     </row>
     <row r="7">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
     </row>
     <row r="8">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
     </row>
     <row r="9">
@@ -648,7 +648,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -657,11 +657,11 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
     </row>
     <row r="10">
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
     </row>
     <row r="11">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
     </row>
     <row r="12">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
     </row>
     <row r="13">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
     </row>
     <row r="14">
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
     </row>
     <row r="15">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
     </row>
     <row r="16">
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
     </row>
     <row r="17">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
     </row>
     <row r="18">
@@ -883,11 +883,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
     </row>
     <row r="19">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
     </row>
     <row r="20">
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
     </row>
     <row r="21">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
     </row>
     <row r="22">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
     </row>
     <row r="23">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
     </row>
     <row r="24">
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
     </row>
     <row r="25">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
     </row>
     <row r="26">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
     </row>
     <row r="27">
@@ -1121,11 +1121,11 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
     </row>
     <row r="28">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
     </row>
     <row r="29">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
     </row>
     <row r="30">
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
     </row>
     <row r="31">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
     </row>
     <row r="32">
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
     </row>
     <row r="33">
@@ -1273,11 +1273,11 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
     </row>
     <row r="34">
@@ -1295,11 +1295,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
     </row>
     <row r="35">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
     </row>
     <row r="36">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
     </row>
     <row r="37">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
     </row>
     <row r="38">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
     </row>
     <row r="39">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
     </row>
     <row r="40">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
     </row>
     <row r="41">
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
     </row>
     <row r="42">
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
     </row>
     <row r="43">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
     </row>
     <row r="44">
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
     </row>
     <row r="45">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
     </row>
     <row r="46">
@@ -1599,11 +1599,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
     </row>
     <row r="47">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
     </row>
     <row r="48">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
     </row>
     <row r="49">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
     </row>
     <row r="50">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
     </row>
     <row r="51">
@@ -1733,7 +1733,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
     </row>
     <row r="52">
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
     </row>
     <row r="53">
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
     </row>
     <row r="54">
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
     </row>
     <row r="55">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
     </row>
     <row r="56">
@@ -1863,7 +1863,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
     </row>
     <row r="57">
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
     </row>
     <row r="58">
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
     </row>
     <row r="59">
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
     </row>
     <row r="60">
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
     </row>
     <row r="61">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
     </row>
     <row r="62">
@@ -2015,11 +2015,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
     </row>
     <row r="63">
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
     </row>
     <row r="64">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
     </row>
     <row r="65">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
     </row>
     <row r="66">
@@ -2123,11 +2123,11 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
     </row>
     <row r="67">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
     </row>
     <row r="68">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
     </row>
     <row r="69">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
     </row>
     <row r="70">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
     </row>
     <row r="71">
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
     </row>
     <row r="72">
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
     </row>
     <row r="73">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
     </row>
     <row r="74">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
     </row>
     <row r="75">
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
     </row>
     <row r="76">
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
     </row>
     <row r="77">
@@ -2401,11 +2401,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
     </row>
     <row r="78">
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
     </row>
     <row r="79">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
     </row>
     <row r="80">
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
     </row>
     <row r="81">
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
     </row>
     <row r="82">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
     </row>
     <row r="83">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
     </row>
     <row r="84">
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
     </row>
     <row r="85">
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
     </row>
     <row r="86">
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
     </row>
     <row r="87">
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
     </row>
     <row r="88">
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
     </row>
     <row r="89">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
     </row>
     <row r="90">
@@ -2743,7 +2743,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
     </row>
     <row r="91">
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
     </row>
     <row r="92">
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
     </row>
     <row r="93">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
     </row>
     <row r="94">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
     </row>
     <row r="95">
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
     </row>
     <row r="96">
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
     </row>
     <row r="97">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
     </row>
     <row r="98">
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
     </row>
     <row r="99">
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
     </row>
     <row r="100">
@@ -2999,11 +2999,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
     </row>
     <row r="101">
@@ -3029,11 +3029,11 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
     </row>
     <row r="102">
@@ -3051,11 +3051,11 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
     </row>
     <row r="103">
@@ -3073,11 +3073,11 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
     </row>
     <row r="104">
@@ -3095,11 +3095,11 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
     </row>
     <row r="105">
@@ -3117,11 +3117,11 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
     </row>
     <row r="106">
@@ -3139,11 +3139,11 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
     </row>
     <row r="107">
@@ -3161,11 +3161,11 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
     </row>
     <row r="108">
@@ -3179,15 +3179,15 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
     </row>
     <row r="109">
@@ -3205,11 +3205,11 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
     </row>
     <row r="110">
@@ -3227,11 +3227,11 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
     </row>
     <row r="111">
@@ -3249,11 +3249,11 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
     </row>
     <row r="112">
@@ -3271,11 +3271,11 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
     </row>
     <row r="113">
@@ -3293,11 +3293,11 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
     </row>
     <row r="114">
@@ -3315,11 +3315,11 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
     </row>
     <row r="115">
@@ -3337,11 +3337,11 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
     </row>
     <row r="116">
@@ -3359,11 +3359,11 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
     </row>
     <row r="117">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3381,11 +3381,11 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
     </row>
     <row r="118">
@@ -3403,11 +3403,11 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
     </row>
     <row r="119">
@@ -3425,11 +3425,11 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
     </row>
     <row r="120">
@@ -3447,11 +3447,11 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
     </row>
     <row r="121">
@@ -3469,11 +3469,11 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
     </row>
     <row r="122">
@@ -3491,11 +3491,11 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
     </row>
     <row r="123">
@@ -3513,11 +3513,11 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
     </row>
     <row r="124">
@@ -3531,15 +3531,15 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
     </row>
     <row r="125">
@@ -3557,11 +3557,11 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
     </row>
     <row r="126">
@@ -3579,11 +3579,11 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
     </row>
     <row r="127">
@@ -3601,11 +3601,11 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
     </row>
     <row r="128">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3623,11 +3623,11 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
     </row>
     <row r="129">
@@ -3645,11 +3645,11 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
     </row>
     <row r="130">
@@ -3667,11 +3667,11 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
     </row>
     <row r="131">
@@ -3689,11 +3689,11 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
     </row>
     <row r="132">
@@ -3711,11 +3711,11 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
     </row>
     <row r="133">
@@ -3733,11 +3733,11 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
     </row>
     <row r="134">
@@ -3755,11 +3755,11 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
     </row>
     <row r="135">
@@ -3777,11 +3777,11 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
     </row>
     <row r="136">
@@ -3799,11 +3799,11 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
     </row>
     <row r="137">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3821,11 +3821,11 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
     </row>
     <row r="138">
@@ -3843,11 +3843,11 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
     </row>
     <row r="139">
@@ -3865,11 +3865,11 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
     </row>
     <row r="140">
@@ -3887,11 +3887,11 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
     </row>
     <row r="141">
@@ -3909,11 +3909,11 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
     </row>
     <row r="142">
@@ -3931,11 +3931,11 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
     </row>
     <row r="143">
@@ -3953,11 +3953,11 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
     </row>
     <row r="144">
@@ -3975,11 +3975,11 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
     </row>
     <row r="145">
@@ -3997,11 +3997,11 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
     </row>
     <row r="146">
@@ -4019,11 +4019,11 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
     </row>
     <row r="147">
@@ -4041,11 +4041,11 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
     </row>
     <row r="148">
@@ -4063,11 +4063,11 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
     </row>
     <row r="149">
@@ -4085,11 +4085,11 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
     </row>
     <row r="150">
@@ -4107,11 +4107,11 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
     </row>
     <row r="151">
@@ -4129,11 +4129,11 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
     </row>
     <row r="152">
@@ -4151,11 +4151,11 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
     </row>
     <row r="153">
@@ -4169,15 +4169,15 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
     </row>
     <row r="154">
@@ -4195,11 +4195,11 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
     </row>
     <row r="155">
@@ -4217,11 +4217,11 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
     </row>
     <row r="156">
@@ -4239,11 +4239,11 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
     </row>
     <row r="157">
@@ -4257,15 +4257,15 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
     </row>
     <row r="158">
@@ -4283,11 +4283,11 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
     </row>
     <row r="159">
@@ -4305,11 +4305,11 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
     </row>
     <row r="160">
@@ -4327,11 +4327,11 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
     </row>
     <row r="161">
@@ -4349,11 +4349,11 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
     </row>
     <row r="162">
@@ -4371,11 +4371,11 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
     </row>
     <row r="163">
@@ -4393,11 +4393,11 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
     </row>
     <row r="164">
@@ -4415,11 +4415,11 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
     </row>
     <row r="165">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
     </row>
     <row r="166">
@@ -4459,11 +4459,11 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
     </row>
     <row r="167">
@@ -4481,11 +4481,11 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
     </row>
     <row r="168">
@@ -4503,11 +4503,11 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
     </row>
     <row r="169">
@@ -4525,11 +4525,11 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
     </row>
     <row r="170">
@@ -4547,11 +4547,11 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
     </row>
     <row r="171">
@@ -4569,11 +4569,11 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
     </row>
     <row r="172">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4591,11 +4591,11 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
     </row>
     <row r="173">
@@ -4609,15 +4609,15 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
     </row>
     <row r="174">
@@ -4635,11 +4635,11 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
     </row>
     <row r="175">
@@ -4657,11 +4657,11 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
     </row>
     <row r="176">
@@ -4679,11 +4679,11 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
     </row>
     <row r="177">
@@ -4701,11 +4701,11 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
     </row>
     <row r="178">
@@ -4723,11 +4723,11 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
     </row>
     <row r="179">
@@ -4745,11 +4745,11 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
     </row>
     <row r="180">
@@ -4767,11 +4767,11 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
     </row>
     <row r="181">
@@ -4789,11 +4789,11 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
     </row>
     <row r="182">
@@ -4811,11 +4811,11 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
     </row>
     <row r="183">
@@ -4833,11 +4833,11 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
     </row>
     <row r="184">
@@ -4855,11 +4855,11 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
     </row>
     <row r="185">
@@ -4877,11 +4877,11 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
     </row>
     <row r="186">
@@ -4899,11 +4899,11 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
     </row>
     <row r="187">
@@ -4921,11 +4921,11 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
     </row>
     <row r="188">
@@ -4943,11 +4943,11 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
     </row>
     <row r="189">
@@ -4965,11 +4965,11 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
     </row>
     <row r="190">
@@ -4983,15 +4983,15 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
     </row>
     <row r="191">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5009,11 +5009,11 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
     </row>
     <row r="192">
@@ -5031,11 +5031,11 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
     </row>
     <row r="193">
@@ -5053,11 +5053,11 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
     </row>
     <row r="194">
@@ -5075,11 +5075,11 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
     </row>
     <row r="195">
@@ -5097,11 +5097,11 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
     </row>
     <row r="196">
@@ -5119,11 +5119,11 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
     </row>
     <row r="197">
@@ -5141,11 +5141,11 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
     </row>
     <row r="198">
@@ -5163,11 +5163,11 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
     </row>
     <row r="199">
@@ -5185,11 +5185,11 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
     </row>
     <row r="200">
@@ -5207,11 +5207,11 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
     </row>
     <row r="201">
@@ -5229,11 +5229,11 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
     </row>
     <row r="202">
@@ -5251,11 +5251,11 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
     </row>
     <row r="203">
@@ -5273,11 +5273,11 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
     </row>
     <row r="204">
@@ -5295,11 +5295,11 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
     </row>
     <row r="205">
@@ -5317,11 +5317,11 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
     </row>
     <row r="206">
@@ -5339,11 +5339,11 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
     </row>
     <row r="207">
@@ -5361,11 +5361,11 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
     </row>
     <row r="208">
@@ -5379,15 +5379,15 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
     </row>
     <row r="209">
@@ -5405,11 +5405,11 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
     </row>
     <row r="210">
@@ -5427,11 +5427,11 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
     </row>
     <row r="211">
@@ -5449,11 +5449,11 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
     </row>
     <row r="212">
@@ -5471,11 +5471,11 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
     </row>
     <row r="213">
@@ -5493,11 +5493,11 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
     </row>
     <row r="214">
@@ -5515,11 +5515,11 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
     </row>
     <row r="215">
@@ -5537,11 +5537,11 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
     </row>
     <row r="216">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5559,11 +5559,11 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
     </row>
     <row r="217">
@@ -5581,11 +5581,11 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
     </row>
     <row r="218">
@@ -5603,11 +5603,11 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
     </row>
     <row r="219">
@@ -5625,11 +5625,11 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
     </row>
     <row r="220">
@@ -5647,11 +5647,11 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
     </row>
     <row r="221">
@@ -5669,11 +5669,11 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
     </row>
     <row r="222">
@@ -5691,11 +5691,11 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
     </row>
     <row r="223">
@@ -5713,11 +5713,11 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
     </row>
     <row r="224">
@@ -5735,11 +5735,11 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
     </row>
     <row r="225">
@@ -5753,15 +5753,15 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
     </row>
     <row r="226">
@@ -5779,11 +5779,11 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
     </row>
     <row r="227">
@@ -5801,11 +5801,11 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
     </row>
     <row r="228">
@@ -5823,11 +5823,11 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
     </row>
     <row r="229">
@@ -5845,11 +5845,11 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
     </row>
     <row r="230">
@@ -5867,11 +5867,11 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
     </row>
     <row r="231">
@@ -5889,11 +5889,11 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
     </row>
     <row r="232">
@@ -5911,11 +5911,11 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
     </row>
     <row r="233">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5933,11 +5933,11 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
     </row>
     <row r="234">
@@ -5955,11 +5955,11 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
     </row>
     <row r="235">
@@ -5977,11 +5977,11 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
     </row>
     <row r="236">
@@ -5995,15 +5995,15 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
     </row>
     <row r="237">
@@ -6021,11 +6021,11 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
     </row>
     <row r="238">
@@ -6043,11 +6043,11 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
     </row>
     <row r="239">
@@ -6065,11 +6065,11 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
     </row>
     <row r="240">
@@ -6087,11 +6087,11 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
     </row>
     <row r="241">
@@ -6109,11 +6109,11 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
     </row>
     <row r="242">
@@ -6131,11 +6131,11 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
     </row>
     <row r="243">
@@ -6153,11 +6153,11 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
     </row>
     <row r="244">
@@ -6175,11 +6175,11 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
     </row>
     <row r="245">
@@ -6197,11 +6197,11 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
     </row>
     <row r="246">
@@ -6210,7 +6210,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -6219,11 +6219,11 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
     </row>
     <row r="247">
@@ -6241,11 +6241,11 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
     </row>
     <row r="248">
@@ -6263,11 +6263,11 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
     </row>
     <row r="249">
@@ -6285,11 +6285,11 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
     </row>
     <row r="250">
@@ -6307,11 +6307,11 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
     </row>
     <row r="251">
@@ -6329,11 +6329,11 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
     </row>
     <row r="252">
@@ -6351,11 +6351,11 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
     </row>
     <row r="253">
@@ -6373,11 +6373,11 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
     </row>
     <row r="254">
@@ -6395,11 +6395,11 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
     </row>
     <row r="255">
@@ -6417,11 +6417,11 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
     </row>
     <row r="256">
@@ -6439,11 +6439,11 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
     </row>
     <row r="257">
@@ -6461,11 +6461,11 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
     </row>
     <row r="258">
@@ -6483,11 +6483,11 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
     </row>
     <row r="259">
@@ -6505,11 +6505,11 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
     </row>
     <row r="260">
@@ -6527,11 +6527,11 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
     </row>
     <row r="261">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -6549,11 +6549,11 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
     </row>
     <row r="262">
@@ -6571,11 +6571,11 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
     </row>
     <row r="263">
@@ -6589,15 +6589,15 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
     </row>
     <row r="264">
@@ -6615,11 +6615,11 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
     </row>
     <row r="265">
@@ -6637,11 +6637,11 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
     </row>
     <row r="266">
@@ -6659,11 +6659,11 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
     </row>
     <row r="267">
@@ -6681,11 +6681,11 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
     </row>
     <row r="268">
@@ -6703,11 +6703,11 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
     </row>
     <row r="269">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
     </row>
     <row r="270">
@@ -6747,11 +6747,11 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
     </row>
     <row r="271">
@@ -6769,11 +6769,11 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
     </row>
     <row r="272">
@@ -6791,11 +6791,11 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
     </row>
     <row r="273">
@@ -6813,11 +6813,11 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
     </row>
     <row r="274">
@@ -6835,11 +6835,11 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
     </row>
     <row r="275">
@@ -6857,11 +6857,11 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
     </row>
     <row r="276">
@@ -6879,11 +6879,11 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
     </row>
     <row r="277">
@@ -6901,11 +6901,11 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
     </row>
     <row r="278">
@@ -6923,11 +6923,11 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
     </row>
     <row r="279">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -6945,11 +6945,11 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
     </row>
     <row r="280">
@@ -6967,11 +6967,11 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
     </row>
     <row r="281">
@@ -6989,11 +6989,11 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
     </row>
     <row r="282">
@@ -7011,11 +7011,11 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
     </row>
     <row r="283">
@@ -7033,11 +7033,11 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
     </row>
     <row r="284">
@@ -7055,11 +7055,11 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
     </row>
     <row r="285">
@@ -7077,11 +7077,11 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
     </row>
     <row r="286">
@@ -7099,11 +7099,11 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
     </row>
     <row r="287">
@@ -7121,11 +7121,11 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
     </row>
     <row r="288">
@@ -7139,15 +7139,15 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
     </row>
     <row r="289">
@@ -7165,11 +7165,11 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
     </row>
     <row r="290">
@@ -7183,15 +7183,15 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
     </row>
     <row r="291">
@@ -7209,11 +7209,11 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
     </row>
     <row r="292">
@@ -7231,11 +7231,11 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
     </row>
     <row r="293">
@@ -7253,11 +7253,11 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
     </row>
     <row r="294">
@@ -7275,11 +7275,11 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
     </row>
     <row r="295">
@@ -7297,11 +7297,11 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
     </row>
     <row r="296">
@@ -7319,11 +7319,11 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
     </row>
     <row r="297">
@@ -7341,11 +7341,11 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
     </row>
     <row r="298">
@@ -7363,11 +7363,11 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
     </row>
     <row r="299">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -7385,11 +7385,11 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
     </row>
     <row r="300">
@@ -7407,11 +7407,11 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
     </row>
     <row r="301">
@@ -7429,11 +7429,11 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
     </row>
     <row r="302">
@@ -7451,11 +7451,11 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
     </row>
     <row r="303">
@@ -7473,11 +7473,11 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
     </row>
     <row r="304">
@@ -7495,11 +7495,11 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
     </row>
     <row r="305">
@@ -7517,11 +7517,11 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
     </row>
     <row r="306">
@@ -7539,11 +7539,11 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
     </row>
     <row r="307">
@@ -7561,11 +7561,11 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
     </row>
   </sheetData>
